--- a/docs/ics-attack-v15.1/ics-attack-v15.1-assets.xlsx
+++ b/docs/ics-attack-v15.1/ics-attack-v15.1-assets.xlsx
@@ -291,7 +291,7 @@
     <t>16 October 2023</t>
   </si>
   <si>
-    <t>ICS</t>
+    <t>ics-attack</t>
   </si>
   <si>
     <t>1.0</t>
@@ -348,7 +348,7 @@
     <t>Transient Cyber Asset (TCA); Engineering Workstation (EWS)</t>
   </si>
   <si>
-    <t>Electric, General, Water and Wastewater; General; General; Electric</t>
+    <t>General, Electric, Water and Wastewater; General; General; Electric</t>
   </si>
   <si>
     <t>General; Electric, General</t>

--- a/docs/ics-attack-v15.1/ics-attack-v15.1-assets.xlsx
+++ b/docs/ics-attack-v15.1/ics-attack-v15.1-assets.xlsx
@@ -291,7 +291,7 @@
     <t>16 October 2023</t>
   </si>
   <si>
-    <t>ics-attack</t>
+    <t>ICS</t>
   </si>
   <si>
     <t>1.0</t>
@@ -348,7 +348,7 @@
     <t>Transient Cyber Asset (TCA); Engineering Workstation (EWS)</t>
   </si>
   <si>
-    <t>General, Electric, Water and Wastewater; General; General; Electric</t>
+    <t>Electric, General, Water and Wastewater; General; General; Electric</t>
   </si>
   <si>
     <t>General; Electric, General</t>
